--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaredfk\OneDrive - Ethiopian Airlines\Documents\Personal\Tv setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981919C-825B-4C0E-933B-99A6E8A4C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C99E9E8-5500-46C9-A80F-9C2B20D14A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>PN</t>
   </si>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +620,278 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>962370</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>660973</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>958488</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>21400</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21564</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>962370</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>660973</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>958488</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21400</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21564</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaredfk\OneDrive - Ethiopian Airlines\Documents\Personal\Tv setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB9652B-DB5C-4D4B-8F4C-EF3353E5F630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62D89E-CBD8-46F6-A295-3F30F83FD249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>Model</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>HGT 1700</t>
-  </si>
-  <si>
-    <t>HGT 1701</t>
-  </si>
-  <si>
-    <t>HGT 1702</t>
   </si>
   <si>
     <t>60A649</t>
@@ -733,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +762,7 @@
         <v>956334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -782,7 +776,7 @@
         <v>956978</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -796,7 +790,7 @@
         <v>958805</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -810,7 +804,7 @@
         <v>956460</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -824,7 +818,7 @@
         <v>958558</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -838,7 +832,7 @@
         <v>958488</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -852,7 +846,7 @@
         <v>958786</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -866,7 +860,7 @@
         <v>958585</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -880,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -894,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -908,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -922,7 +916,7 @@
         <v>962370</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -933,13 +927,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>27</v>
@@ -964,7 +958,7 @@
         <v>874477</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
@@ -975,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -992,7 +986,7 @@
         <v>890673</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -1006,7 +1000,7 @@
         <v>658962</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -1020,7 +1014,7 @@
         <v>875492</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1034,7 +1028,7 @@
         <v>960914</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -1048,7 +1042,7 @@
         <v>892472</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>27</v>
@@ -1059,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>27</v>
@@ -1073,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -1090,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1098,13 +1092,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1112,13 +1106,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -1129,13 +1123,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
@@ -1174,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>27</v>
@@ -1185,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>27</v>
@@ -1202,7 +1196,7 @@
         <v>603708</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>27</v>
@@ -1216,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -1227,13 +1221,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,10 +1238,10 @@
         <v>603721</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,10 +1252,10 @@
         <v>602824</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,10 +1266,10 @@
         <v>603734</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,10 +1280,10 @@
         <v>603772</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,24 +1291,24 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -1322,13 +1316,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -1336,13 +1330,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>27</v>
@@ -1350,13 +1344,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>27</v>
@@ -1364,13 +1358,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1378,13 +1372,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1392,13 +1386,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1406,13 +1400,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>27</v>
@@ -1420,100 +1414,100 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2">
         <v>10528</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>11331</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
         <v>10589</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2">
         <v>10418</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>11138</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
         <v>11108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,10 +1518,10 @@
         <v>21564</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,10 +1532,10 @@
         <v>21791</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,10 +1546,10 @@
         <v>21400</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,10 +1560,10 @@
         <v>21813</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,10 +1574,10 @@
         <v>21376</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,10 +1588,10 @@
         <v>21608</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,10 +1602,10 @@
         <v>21771</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,10 +1616,10 @@
         <v>21944</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,21 +1630,21 @@
         <v>21428</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>24</v>
@@ -1658,13 +1652,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>24</v>
@@ -1672,13 +1666,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2">
         <v>907824</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>24</v>
@@ -1686,13 +1680,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2">
         <v>907574</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>24</v>
@@ -1700,125 +1694,125 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
         <v>906973</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2">
         <v>906896</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2">
         <v>907651</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>24</v>
@@ -1826,41 +1820,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
@@ -1868,13 +1862,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>24</v>
@@ -1923,7 +1917,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1932,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1952,7 +1946,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaredfk\OneDrive - Ethiopian Airlines\Documents\Personal\Tv setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62D89E-CBD8-46F6-A295-3F30F83FD249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B877E5-CE79-4BEC-AF6B-502996293576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -378,6 +378,97 @@
   </si>
   <si>
     <t>Yohannes D.</t>
+  </si>
+  <si>
+    <t>FA1296</t>
+  </si>
+  <si>
+    <t>PLT5</t>
+  </si>
+  <si>
+    <t>FA1310</t>
+  </si>
+  <si>
+    <t>FA1220</t>
+  </si>
+  <si>
+    <t>FA1300</t>
+  </si>
+  <si>
+    <t>FA1051</t>
+  </si>
+  <si>
+    <t>FA1225</t>
+  </si>
+  <si>
+    <t>FA0681</t>
+  </si>
+  <si>
+    <t>FA1372</t>
+  </si>
+  <si>
+    <t>FA1359</t>
+  </si>
+  <si>
+    <t>FA1401</t>
+  </si>
+  <si>
+    <t>FA1228</t>
+  </si>
+  <si>
+    <t>FA1413</t>
+  </si>
+  <si>
+    <t>FA1229</t>
+  </si>
+  <si>
+    <t>FA1050</t>
+  </si>
+  <si>
+    <t>FA1227</t>
+  </si>
+  <si>
+    <t>FA0706</t>
+  </si>
+  <si>
+    <t>FA1323</t>
+  </si>
+  <si>
+    <t>FA1322</t>
+  </si>
+  <si>
+    <t>FA0671</t>
+  </si>
+  <si>
+    <t>FA0950</t>
+  </si>
+  <si>
+    <t>FA0954</t>
+  </si>
+  <si>
+    <t>FA1059</t>
+  </si>
+  <si>
+    <t>FA0670</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Gate 1C</t>
+  </si>
+  <si>
+    <t>Gate 2 - LTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLT5
+</t>
+  </si>
+  <si>
+    <t>Disassembly - LTAA</t>
+  </si>
+  <si>
+    <t>Gate 0 LTAA</t>
   </si>
 </sst>
 </file>
@@ -725,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +1962,328 @@
         <v>112</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaredfk\OneDrive - Ethiopian Airlines\Documents\Personal\Tv setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B877E5-CE79-4BEC-AF6B-502996293576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73657D5-1FBC-4011-A46A-6EDA269D7742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop Visit Status" sheetId="1" r:id="rId1"/>
@@ -525,16 +525,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,14 +940,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>958585</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1169,506 +1166,506 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2">
-        <v>603708</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2">
-        <v>603721</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2">
-        <v>602824</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2">
-        <v>603734</v>
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>603772</v>
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="2">
-        <v>10528</v>
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="2">
-        <v>11331</v>
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10589</v>
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B53" s="2">
-        <v>10418</v>
+        <v>603708</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="2">
-        <v>11138</v>
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="2">
-        <v>11108</v>
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2">
-        <v>21564</v>
+        <v>603721</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57" s="2">
-        <v>21791</v>
+        <v>602824</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" s="2">
-        <v>21400</v>
+        <v>603734</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2">
-        <v>21813</v>
+        <v>603772</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="2">
-        <v>21376</v>
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1673,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="2">
-        <v>21608</v>
+        <v>21564</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1687,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="2">
-        <v>21771</v>
+        <v>21791</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1701,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="2">
-        <v>21944</v>
+        <v>21400</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,573 +1715,573 @@
         <v>5</v>
       </c>
       <c r="B64" s="2">
-        <v>21428</v>
+        <v>21813</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>21376</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>21608</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2">
-        <v>907824</v>
+        <v>21771</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>907574</v>
+        <v>21944</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B69" s="2">
-        <v>906973</v>
+        <v>21428</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="2">
-        <v>906896</v>
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="2">
-        <v>907651</v>
+        <v>51</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10528</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="B78" s="2">
+        <v>11331</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="B79" s="2">
+        <v>10589</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="B80" s="2">
+        <v>10418</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
+      </c>
+      <c r="B81" s="2">
+        <v>11138</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
+      </c>
+      <c r="B82" s="2">
+        <v>11108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
+      </c>
+      <c r="B85" s="2">
+        <v>907824</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
+      </c>
+      <c r="B86" s="2">
+        <v>907574</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="B87" s="2">
+        <v>906973</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="B88" s="2">
+        <v>906896</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
+      </c>
+      <c r="B89" s="2">
+        <v>907651</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaredfk\OneDrive - Ethiopian Airlines\Documents\Personal\Tv setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73657D5-1FBC-4011-A46A-6EDA269D7742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0829D0B-F733-437C-B4CE-2FC77EA49516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,44 +2076,44 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>111</v>
@@ -2135,13 +2135,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2149,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,27 +2163,27 @@
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,13 +2191,13 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2205,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>24</v>
@@ -2216,44 +2216,44 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
